--- a/Rabbit/Position_Related_Plots/Rabbit_Macula_Results_Top_Vitreous.xlsx
+++ b/Rabbit/Position_Related_Plots/Rabbit_Macula_Results_Top_Vitreous.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github for Jabias project/Slow convection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project - normal/Rabbit/Position_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="13_ncr:1_{4297560E-3861-43A8-BF5C-3FEE0C062D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08ADF7F5-8D29-4F15-BEFF-C7D98915DADA}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{4297560E-3861-43A8-BF5C-3FEE0C062D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D7E86D6-91ED-4770-9BE8-0B538361B841}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
@@ -102,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,16 +134,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +205,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -302,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -444,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -452,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F12E1E1-F417-4873-A457-46982C3441A7}">
-  <dimension ref="A1:U96"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="J19" sqref="I19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,11 +482,11 @@
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
@@ -509,48 +518,48 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="P4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
@@ -565,19 +574,19 @@
       <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="R5" t="s">
@@ -1228,10 +1237,10 @@
         <f t="shared" si="2"/>
         <v>1.9346281651947306</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>4.5</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="7">
         <f t="shared" si="6"/>
         <v>10.186892228497198</v>
       </c>
@@ -1420,10 +1429,10 @@
         <f t="shared" si="2"/>
         <v>0.12072892302726712</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="5">
         <v>6</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="5">
         <f t="shared" si="6"/>
         <v>0.63500141794006004</v>
       </c>
@@ -1451,10 +1460,10 @@
         <f t="shared" si="5"/>
         <v>0.13165352534708505</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="5">
         <v>6</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="5">
         <f t="shared" si="7"/>
         <v>0.65987143592901787</v>
       </c>
@@ -3525,11 +3534,11 @@
         <v>2.5976157544513899E-30</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" ref="G52:G76" si="8">F52*$L$1*$L$2</f>
+        <f t="shared" ref="G52:G86" si="8">F52*$L$1*$L$2</f>
         <v>3.8704474741325711E-19</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" ref="H52:H76" si="9">G52*$H$1/$H$2</f>
+        <f t="shared" ref="H52:H86" si="9">G52*$H$1/$H$2</f>
         <v>1.7530850324012233E-15</v>
       </c>
       <c r="I52">
@@ -3556,11 +3565,11 @@
         <v>1.4446610195286E-29</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" ref="R52:R76" si="10">Q52*$L$1*$L$2</f>
+        <f t="shared" ref="R52:R86" si="10">Q52*$L$1*$L$2</f>
         <v>2.152544919097614E-18</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" ref="S52:S76" si="11">R52*$H$1/$H$2</f>
+        <f t="shared" ref="S52:S86" si="11">R52*$H$1/$H$2</f>
         <v>9.7497622806186039E-15</v>
       </c>
       <c r="T52">
@@ -3636,13 +3645,13 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="5">
         <v>24</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="6">
         <v>3.47020359668266E-6</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5">
         <f t="shared" si="0"/>
         <v>0.51706033590571632</v>
       </c>
@@ -4731,7 +4740,7 @@
         <v>2.16372414453327E-7</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C76" si="12">B71*$L$1</f>
+        <f t="shared" ref="C71:C86" si="12">B71*$L$1</f>
         <v>3.2239489753545722E-2</v>
       </c>
       <c r="E71">
@@ -4762,7 +4771,7 @@
         <v>7.22606234111223E-6</v>
       </c>
       <c r="N71">
-        <f t="shared" ref="N71:N76" si="13">M71*$L$1</f>
+        <f t="shared" ref="N71:N86" si="13">M71*$L$1</f>
         <v>1.0766832888257223</v>
       </c>
       <c r="P71">
@@ -4944,7 +4953,7 @@
         <v>33.5</v>
       </c>
       <c r="J74">
-        <f t="shared" ref="J74:J75" si="14">AVERAGE(H71:H75)</f>
+        <f t="shared" ref="J74:J85" si="14">AVERAGE(H71:H75)</f>
         <v>6.0407316478795418E-17</v>
       </c>
       <c r="L74">
@@ -4975,7 +4984,7 @@
         <v>33.5</v>
       </c>
       <c r="U74">
-        <f t="shared" ref="U74:U75" si="15">AVERAGE(S71:S75)</f>
+        <f t="shared" ref="U74:U85" si="15">AVERAGE(S71:S75)</f>
         <v>3.5874431422774807E-17</v>
       </c>
     </row>
@@ -5068,6 +5077,13 @@
         <f t="shared" si="9"/>
         <v>6.7935672220385642E-17</v>
       </c>
+      <c r="I76">
+        <v>34.5</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="14"/>
+        <v>6.0743374530083692E-17</v>
+      </c>
       <c r="L76">
         <v>35</v>
       </c>
@@ -5092,206 +5108,639 @@
         <f t="shared" si="11"/>
         <v>1.0865858008688171E-18</v>
       </c>
+      <c r="T76">
+        <v>34.5</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="15"/>
+        <v>1.4539611494704271E-17</v>
+      </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
+      <c r="A77">
+        <v>35.5</v>
+      </c>
+      <c r="B77" s="1">
+        <v>8.0983766470533304E-8</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="12"/>
+        <v>1.2066581204109462E-2</v>
+      </c>
+      <c r="E77">
+        <v>35.5</v>
+      </c>
+      <c r="F77" s="1">
+        <v>6.5010374153215089E-32</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="8"/>
+        <v>9.6865457488290491E-21</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="9"/>
+        <v>4.387435427410804E-17</v>
+      </c>
+      <c r="I77">
+        <v>35</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="14"/>
+        <v>5.5163470901753055E-17</v>
+      </c>
+      <c r="L77">
+        <v>35.5</v>
+      </c>
+      <c r="M77" s="1">
+        <v>3.7589791013285199E-6</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="13"/>
+        <v>0.56008788609794946</v>
+      </c>
+      <c r="P77">
+        <v>35.5</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>1.4064593981975598E-33</v>
+      </c>
+      <c r="R77" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0956245033143643E-22</v>
+      </c>
+      <c r="S77" s="1">
+        <f t="shared" si="11"/>
+        <v>9.4919462797180028E-19</v>
+      </c>
+      <c r="T77">
+        <v>35</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="15"/>
+        <v>9.3371455463510366E-18</v>
+      </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
+      <c r="A78">
+        <v>36</v>
+      </c>
+      <c r="B78" s="1">
+        <v>6.8787034934428004E-8</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="12"/>
+        <v>1.0249268205229773E-2</v>
+      </c>
+      <c r="E78">
+        <v>36</v>
+      </c>
+      <c r="F78" s="1">
+        <v>4.8168096551156476E-32</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="8"/>
+        <v>7.1770463861223148E-21</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="9"/>
+        <v>3.2507798337142249E-17</v>
+      </c>
+      <c r="I78">
+        <v>35.5</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="14"/>
+        <v>4.6597929638059984E-17</v>
+      </c>
+      <c r="L78" s="5">
+        <v>36</v>
+      </c>
+      <c r="M78" s="6">
+        <v>3.3770476349158199E-6</v>
+      </c>
+      <c r="N78" s="5">
+        <f t="shared" si="13"/>
+        <v>0.50318009760245719</v>
+      </c>
+      <c r="P78">
+        <v>36</v>
+      </c>
+      <c r="Q78">
+        <v>1.4613067948849172E-32</v>
+      </c>
+      <c r="R78" s="1">
+        <f t="shared" si="10"/>
+        <v>2.1773471243785267E-21</v>
+      </c>
+      <c r="S78" s="1">
+        <f t="shared" si="11"/>
+        <v>9.8621016810086207E-18</v>
+      </c>
+      <c r="T78">
+        <v>35.5</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="15"/>
+        <v>8.3813288235147563E-18</v>
+      </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
+      <c r="A79">
+        <v>36.5</v>
+      </c>
+      <c r="B79" s="1">
+        <v>5.8429317109940997E-8</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="12"/>
+        <v>8.7059682493812081E-3</v>
+      </c>
+      <c r="E79">
+        <v>36.5</v>
+      </c>
+      <c r="F79" s="1">
+        <v>3.1325818949097787E-32</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="8"/>
+        <v>4.6675470234155701E-21</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="9"/>
+        <v>2.1141242400176405E-17</v>
+      </c>
+      <c r="I79">
+        <v>36</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="14"/>
+        <v>3.5046750739004591E-17</v>
+      </c>
+      <c r="L79">
+        <v>36.5</v>
+      </c>
+      <c r="M79" s="1">
+        <v>3.0337282995104099E-6</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="13"/>
+        <v>0.45202551662705109</v>
+      </c>
+      <c r="P79">
+        <v>36.5</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>2.7819676499500884E-32</v>
+      </c>
+      <c r="R79" s="1">
+        <f t="shared" si="10"/>
+        <v>4.1451317984256315E-21</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="11"/>
+        <v>1.8775008734045506E-17</v>
+      </c>
+      <c r="T79">
+        <v>36</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="15"/>
+        <v>1.167216132619543E-17</v>
+      </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-    </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-    </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
+      <c r="A80">
+        <v>37</v>
+      </c>
+      <c r="B80" s="1">
+        <v>4.9622521254422403E-8</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="12"/>
+        <v>7.3937556669089379E-3</v>
+      </c>
+      <c r="E80">
+        <v>37</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1.4483541347039174E-32</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="8"/>
+        <v>2.158047660708837E-21</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="9"/>
+        <v>9.774686463210614E-18</v>
+      </c>
+      <c r="I80">
+        <v>36.5</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="14"/>
+        <v>2.1777990189678496E-17</v>
+      </c>
+      <c r="L80">
+        <v>37</v>
+      </c>
+      <c r="M80" s="1">
+        <v>2.7268241201603498E-6</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="13"/>
+        <v>0.40629679390389212</v>
+      </c>
+      <c r="P80">
+        <v>37</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>4.1026285050152604E-32</v>
+      </c>
+      <c r="R80" s="1">
+        <f t="shared" si="10"/>
+        <v>6.1129164724727385E-21</v>
+      </c>
+      <c r="S80" s="1">
+        <f t="shared" si="11"/>
+        <v>2.7687915787082402E-17</v>
+      </c>
+      <c r="T80">
+        <v>36.5</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="15"/>
+        <v>1.7118963099684545E-17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>37.5</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4.2143771318803402E-8</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="12"/>
+        <v>6.2794219265017073E-3</v>
+      </c>
+      <c r="E81">
+        <v>37.5</v>
+      </c>
+      <c r="F81" s="1">
+        <v>2.3587362550194333E-33</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="8"/>
+        <v>3.5145170199789558E-22</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="9"/>
+        <v>1.591869473755174E-18</v>
+      </c>
+      <c r="I81">
+        <v>37</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="14"/>
+        <v>1.559480441700108E-17</v>
+      </c>
+      <c r="L81">
+        <v>37.5</v>
+      </c>
+      <c r="M81" s="1">
+        <v>2.4489924707983499E-6</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="13"/>
+        <v>0.36489987814895414</v>
+      </c>
+      <c r="P81">
+        <v>37.5</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>4.1963750489091313E-32</v>
+      </c>
+      <c r="R81" s="1">
+        <f t="shared" si="10"/>
+        <v>6.2525988228746054E-21</v>
+      </c>
+      <c r="S81" s="1">
+        <f t="shared" si="11"/>
+        <v>2.8320594668314392E-17</v>
+      </c>
+      <c r="T81">
+        <v>37</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="15"/>
+        <v>2.2441154019381685E-17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>38</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3.5793294961689302E-8</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="12"/>
+        <v>5.3332009492917058E-3</v>
+      </c>
+      <c r="E82">
+        <v>38</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1.9201013857078041E-32</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="8"/>
+        <v>2.8609510647046281E-21</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="9"/>
+        <v>1.2958425410720962E-17</v>
+      </c>
+      <c r="I82">
+        <v>37.5</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="14"/>
+        <v>1.395824101910998E-17</v>
+      </c>
+      <c r="L82">
+        <v>38</v>
+      </c>
+      <c r="M82" s="1">
+        <v>2.2005662254738302E-6</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="13"/>
+        <v>0.32788436759560069</v>
+      </c>
+      <c r="P82">
+        <v>38</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>4.0836968260243836E-32</v>
+      </c>
+      <c r="R82" s="1">
+        <f t="shared" si="10"/>
+        <v>6.0847082707763313E-21</v>
+      </c>
+      <c r="S82" s="1">
+        <f t="shared" si="11"/>
+        <v>2.75601492264575E-17</v>
+      </c>
+      <c r="T82">
+        <v>37.5</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="15"/>
+        <v>2.5828674440100081E-17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>38.5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>3.0401243751036602E-8</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="12"/>
+        <v>4.5297853189044538E-3</v>
+      </c>
+      <c r="E83">
+        <v>38.5</v>
+      </c>
+      <c r="F83" s="1">
+        <v>3.6043291459136643E-32</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="8"/>
+        <v>5.3704504274113593E-21</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="9"/>
+        <v>2.4324981347686747E-17</v>
+      </c>
+      <c r="I83">
+        <v>38</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="14"/>
+        <v>1.6868299996005219E-17</v>
+      </c>
+      <c r="L83">
+        <v>38.5</v>
+      </c>
+      <c r="M83" s="1">
+        <v>1.97714931108726E-6</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="13"/>
+        <v>0.29459524735200177</v>
+      </c>
+      <c r="P83">
+        <v>38.5</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>3.9710186031396348E-32</v>
+      </c>
+      <c r="R83" s="1">
+        <f t="shared" si="10"/>
+        <v>5.9168177186780563E-21</v>
+      </c>
+      <c r="S83" s="1">
+        <f t="shared" si="11"/>
+        <v>2.679970378460061E-17</v>
+      </c>
+      <c r="T83">
+        <v>38</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="15"/>
+        <v>2.7281524361839729E-17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>39</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2.5823234085102701E-8</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="12"/>
+        <v>3.8476618786803026E-3</v>
+      </c>
+      <c r="E84">
+        <v>39</v>
+      </c>
+      <c r="F84" s="1">
+        <v>5.2885569061195343E-32</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="8"/>
+        <v>7.8799497901181071E-21</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="9"/>
+        <v>3.5691537284652603E-17</v>
+      </c>
+      <c r="I84">
+        <v>38.5</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="14"/>
+        <v>2.3935306344520896E-17</v>
+      </c>
+      <c r="L84">
+        <v>39</v>
+      </c>
+      <c r="M84" s="1">
+        <v>1.77629254487947E-6</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="13"/>
+        <v>0.26466758918704103</v>
+      </c>
+      <c r="P84">
+        <v>39</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>3.8583403802548882E-32</v>
+      </c>
+      <c r="R84" s="1">
+        <f t="shared" si="10"/>
+        <v>5.7489271665797836E-21</v>
+      </c>
+      <c r="S84" s="1">
+        <f t="shared" si="11"/>
+        <v>2.6039258342743724E-17</v>
+      </c>
+      <c r="T84">
+        <v>38.5</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="15"/>
+        <v>2.6799703784600629E-17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>39.5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2.1933470591914399E-8</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="12"/>
+        <v>3.2680871181952455E-3</v>
+      </c>
+      <c r="E85">
+        <v>39.5</v>
+      </c>
+      <c r="F85" s="1">
+        <v>6.6840861980163261E-32</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="8"/>
+        <v>9.9592884350443254E-21</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5109718205788998E-17</v>
+      </c>
+      <c r="I85">
+        <v>39</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="14"/>
+        <v>3.2295051624388412E-17</v>
+      </c>
+      <c r="L85">
+        <v>39.5</v>
+      </c>
+      <c r="M85" s="1">
+        <v>1.59632309489428E-6</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="13"/>
+        <v>0.23785214113924771</v>
+      </c>
+      <c r="P85">
+        <v>39.5</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>3.7456621573701486E-32</v>
+      </c>
+      <c r="R85" s="1">
+        <f t="shared" si="10"/>
+        <v>5.5810366144815215E-21</v>
+      </c>
+      <c r="S85" s="1">
+        <f t="shared" si="11"/>
+        <v>2.527881290088689E-17</v>
+      </c>
+      <c r="T85">
+        <v>39</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="15"/>
+        <v>2.6039258342743746E-17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>40</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1.8627594118695199E-8</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="12"/>
+        <v>2.7755115236855845E-3</v>
+      </c>
+      <c r="E86">
+        <v>40</v>
+      </c>
+      <c r="F86" s="1">
+        <v>6.4293570107432805E-32</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="8"/>
+        <v>9.5797419460074887E-21</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="9"/>
+        <v>4.3390595873092741E-17</v>
+      </c>
+      <c r="L86">
+        <v>40</v>
+      </c>
+      <c r="M86" s="1">
+        <v>1.4337373036538199E-6</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="13"/>
+        <v>0.21362685824441915</v>
+      </c>
+      <c r="P86">
+        <v>40</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>3.6329839344853998E-32</v>
+      </c>
+      <c r="R86" s="1">
+        <f t="shared" si="10"/>
+        <v>5.4131460623832458E-21</v>
+      </c>
+      <c r="S86" s="1">
+        <f t="shared" si="11"/>
+        <v>2.4518367459029994E-17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
